--- a/pipecalculator.xlsx
+++ b/pipecalculator.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Marks Files\Programming\excel sheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="25815" windowHeight="14535"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Imperial" sheetId="1" r:id="rId1"/>
+    <sheet name="Metric" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>od</t>
   </si>
@@ -24,12 +29,6 @@
     <t>t</t>
   </si>
   <si>
-    <t>area steel</t>
-  </si>
-  <si>
-    <t>area conc</t>
-  </si>
-  <si>
     <t>fy</t>
   </si>
   <si>
@@ -45,35 +44,47 @@
     <t>Mpa</t>
   </si>
   <si>
-    <t>Pyeildkips</t>
-  </si>
-  <si>
-    <t>pyeildkn</t>
-  </si>
-  <si>
     <t>kips</t>
   </si>
   <si>
     <t>kn</t>
   </si>
   <si>
-    <t>Pile Load</t>
-  </si>
-  <si>
-    <t>concrete yeild load</t>
-  </si>
-  <si>
     <t>in^2</t>
   </si>
   <si>
     <t xml:space="preserve">Allowable Load </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pipe Calculator </t>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Kips</t>
+  </si>
+  <si>
+    <t>Steel Area</t>
+  </si>
+  <si>
+    <t>Concrete Area</t>
+  </si>
+  <si>
+    <t>Pile Yield Load</t>
+  </si>
+  <si>
+    <t>Concrete yeild load</t>
+  </si>
+  <si>
+    <t>Outputs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,16 +92,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -98,18 +144,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -156,7 +230,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -188,9 +262,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -222,6 +314,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -397,167 +507,180 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="2:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="C4" s="3">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>50</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5">
+        <f>+C4^2*PI()/4 - ((C4-2*C5)^2)*PI()/4</f>
+        <v>7.8048942487621389</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5">
+        <f xml:space="preserve"> ((C4-2*C5)^2)*PI()/4</f>
+        <v>30.679615757712824</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="5">
+        <f>+C10*C6</f>
+        <v>390.24471243810694</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.375</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="5">
+        <f>+C12/0.225</f>
+        <v>1734.4209441693642</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="5">
+        <f>+C11*C7/6.894757</f>
+        <v>111.24255632835509</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>50</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <f>+B1^2*PI()/4 - ((B1-2*B2)^2)*PI()/4</f>
-        <v>7.8048942487621389</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <f xml:space="preserve"> ((B1-2*B2)^2)*PI()/4</f>
-        <v>30.679615757712824</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <f>+B7*B3</f>
-        <v>390.24471243810694</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
-        <f>+B9/0.225</f>
-        <v>1734.4209441693642</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="C15" s="5">
+        <f>0.3*C12+0.25*C14</f>
+        <v>144.88405281352087</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B11">
-        <f>+B7*B3*0.3+0.25*B4*B8</f>
-        <v>308.82101221713719</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <f>+B8*B4/6.894757</f>
-        <v>111.24255632835509</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <f>0.3*B9+0.25*B12</f>
-        <v>144.88405281352087</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pipecalculator.xlsx
+++ b/pipecalculator.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>od</t>
   </si>
@@ -47,12 +47,6 @@
     <t>kips</t>
   </si>
   <si>
-    <t>kn</t>
-  </si>
-  <si>
-    <t>in^2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Allowable Load </t>
   </si>
   <si>
@@ -78,13 +72,76 @@
   </si>
   <si>
     <t>Outputs</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>I (moment of Inertia)</t>
+  </si>
+  <si>
+    <r>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>kN</t>
+  </si>
+  <si>
+    <t>r (Radius of Gyration)</t>
+  </si>
+  <si>
+    <t>S ( Section Modulus)</t>
+  </si>
+  <si>
+    <r>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +160,14 @@
     <font>
       <b/>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -163,13 +228,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D15"/>
+  <dimension ref="B1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F4" sqref="F4:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,7 +588,7 @@
   <sheetData>
     <row r="1" spans="2:4" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="2:4" ht="19.5" x14ac:dyDescent="0.3">
@@ -530,7 +596,7 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -579,36 +645,36 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="5">
         <f>+C4^2*PI()/4 - ((C4-2*C5)^2)*PI()/4</f>
         <v>7.8048942487621389</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" s="5">
         <f xml:space="preserve"> ((C4-2*C5)^2)*PI()/4</f>
         <v>30.679615757712824</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" s="5">
         <f>+C10*C6</f>
@@ -620,19 +686,19 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="5">
         <f>+C12/0.225</f>
         <v>1734.4209441693642</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" s="5">
         <f>+C11*C7/6.894757</f>
@@ -644,14 +710,62 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" s="5">
         <f>0.3*C12+0.25*C14</f>
         <v>144.88405281352087</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="5">
+        <f>+C4-2*C5</f>
+        <v>6.25</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="5">
+        <f>+PI()*(C4^4-C17^4)/64</f>
+        <v>42.957406236351012</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="5">
+        <f>+PI()*(C4^4-C17^4)/(32*C4)</f>
+        <v>12.273544638957432</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="5">
+        <f>+SQRT(C4^2 + C17^2)/4</f>
+        <v>2.3460405473904324</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
